--- a/OBIE Accounts.xlsx
+++ b/OBIE Accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>https://github.com/EdwinsonCity/CustomBIANSemanticOAS-yamls</t>
+  </si>
+  <si>
+    <t>AccountDetails:
+                $ref: '#/components/schemas/Account'
+Status
+AccountStatusType</t>
   </si>
 </sst>
 </file>
@@ -873,7 +879,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1098,19 +1104,19 @@
         <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>90</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="63" x14ac:dyDescent="0.55000000000000004">
